--- a/results/mp/deberta/corona/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.2/avg_0.003_scores.xlsx
@@ -100,16 +100,16 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>safety</t>
@@ -1177,25 +1177,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6796536796536796</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L19">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1203,25 +1203,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1229,25 +1229,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6642857142857143</v>
       </c>
       <c r="L21">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="N21">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1255,25 +1255,25 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6642857142857143</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L22">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="M22">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1359,25 +1359,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5670731707317073</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L26">
         <v>186</v>
       </c>
       <c r="M26">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="10:17">
